--- a/Precios.xlsx
+++ b/Precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\LANproy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F1EBDC-DD92-4F29-B4E8-9DFCC46F544B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888AFC19-8375-4570-9986-391DFFCD2280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9ECDB113-166A-4A40-BC4A-C73D2A054978}"/>
   </bookViews>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
   <si>
     <t>ITEM</t>
   </si>
@@ -227,9 +227,6 @@
     <t xml:space="preserve">Configuración switches de acceso basica </t>
   </si>
   <si>
-    <t xml:space="preserve">Configuración Switch Core Basica </t>
-  </si>
-  <si>
     <t>SUBTOTAL</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>IGMA</t>
   </si>
   <si>
-    <t>Cableado Estructurado</t>
-  </si>
-  <si>
     <t>CABLE UTP 4 PARES 23 AWG CATEGORIA 6 LSZH. ETL / DELTA VERIFIED BOBINA 305m</t>
   </si>
   <si>
@@ -251,9 +245,6 @@
     <t>PATCH CORD UTP CAT6 3FT LSZH SIGMAPLUS</t>
   </si>
   <si>
-    <t>PC-UTP-CAT6</t>
-  </si>
-  <si>
     <t>Cooper Systems</t>
   </si>
   <si>
@@ -327,6 +318,99 @@
   </si>
   <si>
     <t>ANGULO INTERNO DEXSON 60X40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuración Switch Core Básica </t>
+  </si>
+  <si>
+    <t>Access Point</t>
+  </si>
+  <si>
+    <t>High Performance Wallplate WiFi 6 802.11ax Access Point with Bluetooth Low Energy. Outside US Only; Universal Mounting Bracket is included;</t>
+  </si>
+  <si>
+    <t>AP12-WW</t>
+  </si>
+  <si>
+    <t>Subscription for 1 service (specify SUB-MAN, SUB-ENG, SUB-AST, SUB-VNA, SUB-PMA) for one access point for 3 year: includes upgrades, cloud function subscription and limited lifetime warranty benefits on indoor access points SUBCOMPONENT PARTS Subscriptions for 1 services (SUB-MAN-BND)</t>
+  </si>
+  <si>
+    <t>SUB-1S-3Y</t>
+  </si>
+  <si>
+    <t>Camara</t>
+  </si>
+  <si>
+    <t>Camara Tipo Domo Lente Fijo</t>
+  </si>
+  <si>
+    <t>IPC3612LB-SF28-A</t>
+  </si>
+  <si>
+    <t>UNIVIEW</t>
+  </si>
+  <si>
+    <t>Compra Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 días </t>
+  </si>
+  <si>
+    <t>Inmediato</t>
+  </si>
+  <si>
+    <t>TECNIT</t>
+  </si>
+  <si>
+    <t>RACK DE PARED  17 x 52 x 40 cm</t>
+  </si>
+  <si>
+    <t>TECRACK-4UR</t>
+  </si>
+  <si>
+    <t>Sevidores</t>
+  </si>
+  <si>
+    <t>30HBS0UJ00 ThinkStation P3 Ultra, Intel@ CoreT i9-13900K vPro® , Windows 11 Pro 64, 32GB, 1x1TB SSD M.2 2280 PCle Gen4 Performance TLC Opal, NVIDIA® T1000 8GB GDDR6, BT 5.1 or above, 3 Year On-site</t>
+  </si>
+  <si>
+    <t>Mini Pc Cpu Computador Hp Core I5-7ma</t>
+  </si>
+  <si>
+    <t>30HBS0UJ00</t>
+  </si>
+  <si>
+    <t>HP-MINDESK</t>
+  </si>
+  <si>
+    <t>PTC-UTP-CAT6</t>
+  </si>
+  <si>
+    <t>LENOVO</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Inacorp</t>
+  </si>
+  <si>
+    <t>NATOMOVIL</t>
+  </si>
+  <si>
+    <t>Carrete de Fibra Óptica Monomodo con conectores LC-LC Duplex, Reforzada con Kevlar, de 150 metros</t>
+  </si>
+  <si>
+    <t>FO-LC150</t>
+  </si>
+  <si>
+    <t>FO-LC100</t>
+  </si>
+  <si>
+    <t>arrete de Fibra Óptica Monomodo con conectores LC-LC Duplex, Reforzada con Kevlar, de 100 metros</t>
+  </si>
+  <si>
+    <t>LINKEDPRO BY EPCOM</t>
   </si>
 </sst>
 </file>
@@ -439,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -498,36 +582,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -623,21 +677,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -732,12 +771,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -751,167 +801,143 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1249,17 +1275,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499C370C-1764-4DD9-8C1E-80AC8C6F5607}">
-  <dimension ref="B2:M28"/>
+  <dimension ref="B2:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
@@ -1304,13 +1330,13 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1319,833 +1345,1154 @@
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="8">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="9">
         <v>1748.1083705882352</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="9">
         <v>8740.5418529411763</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="10">
+    <row r="4" spans="2:13" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="31"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="8">
         <v>2</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="8">
         <v>10</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="9">
         <v>26.50950000000001</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="9">
         <v>265.09500000000008</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="10">
+      <c r="B5" s="31"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="8">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="8">
         <v>5</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="9">
         <v>57.977941176470587</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="9">
         <v>289.88970588235293</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="41" t="s">
+    <row r="6" spans="2:13" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="31"/>
+      <c r="C6" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="9">
+        <v>6008.4911764705857</v>
+      </c>
+      <c r="K6" s="9">
+        <v>12016.982352941171</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="31"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="8">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8">
+        <v>20</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="9">
+        <v>26.400705882352945</v>
+      </c>
+      <c r="K7" s="9">
+        <v>528.01411764705892</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="31"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="9">
+        <v>569.40441176470586</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1138.8088235294117</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="31"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="8">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="9">
+        <v>441.85294117647061</v>
+      </c>
+      <c r="K9" s="9">
+        <v>883.70588235294122</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="230.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="31"/>
+      <c r="C10" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="9">
+        <v>5750.8522499999999</v>
+      </c>
+      <c r="K10" s="9">
+        <v>11501.7045</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="31"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="8">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="8">
+        <v>20</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="9">
+        <v>26.400705882352945</v>
+      </c>
+      <c r="K11" s="9">
+        <v>528.01411764705892</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="31"/>
+      <c r="C12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="8">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="8">
+        <v>10</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="9">
+        <v>310</v>
+      </c>
+      <c r="K12" s="27">
+        <f>+J12*G12</f>
+        <v>3100</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="31"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="9">
+        <v>90</v>
+      </c>
+      <c r="K13" s="27">
+        <f>+J13*G13</f>
+        <v>900</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="31"/>
+      <c r="C14" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="8">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="9">
+        <v>2175</v>
+      </c>
+      <c r="K14" s="27">
+        <f t="shared" ref="K14:K15" si="0">+J14*G14</f>
+        <v>2175</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="31"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="8">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="9">
+        <v>240</v>
+      </c>
+      <c r="K15" s="27">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="32"/>
+      <c r="C16" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="51">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="8">
+        <v>10</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="9">
+        <v>55</v>
+      </c>
+      <c r="K16" s="27">
+        <f>+J16*G16</f>
+        <v>550</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="8">
+        <v>19</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="27">
+        <v>138</v>
+      </c>
+      <c r="K17" s="27">
+        <f>+J17*G17</f>
+        <v>2622</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="31"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="8">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="8">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="27">
+        <v>2.9</v>
+      </c>
+      <c r="K18" s="27">
+        <f>+J18*G18</f>
+        <v>5.8</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="31"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="8">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="8">
+        <v>10</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="27">
+        <v>5</v>
+      </c>
+      <c r="K19" s="27">
+        <f>+J19*G19</f>
+        <v>50</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="31"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="8">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="8">
+        <v>46</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="27">
+        <v>2</v>
+      </c>
+      <c r="K20" s="27">
+        <f>+J20*G20</f>
+        <v>92</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="B21" s="31"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="8">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="27">
+        <v>426.24599999999998</v>
+      </c>
+      <c r="K21" s="27">
+        <f>+J21*G21</f>
+        <v>426.24599999999998</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="2:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="32"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="51">
+        <v>6</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="51">
+        <v>3</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="29">
+        <v>378.56200000000001</v>
+      </c>
+      <c r="K22" s="29">
+        <f>+J22*G22</f>
+        <v>1135.6860000000001</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="28"/>
+    </row>
+    <row r="23" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="8">
+        <v>60</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="27">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="K23" s="27">
+        <f t="shared" ref="K23:K24" si="1">+J23*G23</f>
+        <v>1226.4000000000001</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="31"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="8">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="8">
+        <v>20</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="27">
+        <v>2.91</v>
+      </c>
+      <c r="K24" s="27">
+        <f t="shared" si="1"/>
+        <v>58.2</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="31"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="8">
+        <v>3</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="8">
+        <v>60</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="27">
+        <v>6.44</v>
+      </c>
+      <c r="K25" s="27">
+        <f>+J25*G25</f>
+        <v>386.40000000000003</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="31"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="8">
+        <v>4</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="8">
+        <v>30</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="27">
+        <v>10.535</v>
+      </c>
+      <c r="K26" s="27">
+        <f>+J26*G26</f>
+        <v>316.05</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="31"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="8">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="8">
+        <v>30</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="27">
+        <v>3.0449999999999999</v>
+      </c>
+      <c r="K27" s="27">
+        <f>+J27*G27</f>
+        <v>91.35</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="31"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="5">
+        <v>4</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="50">
+        <v>55</v>
+      </c>
+      <c r="K28" s="50">
+        <f>+J28*G28</f>
+        <v>220</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="31"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="8">
+        <v>6</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="10">
-        <v>4</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="27">
+        <v>434.69</v>
+      </c>
+      <c r="K29" s="27">
+        <f>+J29*G29</f>
+        <v>434.69</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="32"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="23">
+        <v>7</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="29">
+        <v>16.88</v>
+      </c>
+      <c r="K30" s="29">
+        <f>+J30*G30</f>
+        <v>16.88</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="5">
+        <v>7</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="10">
+        <v>28</v>
+      </c>
+      <c r="K31" s="26">
+        <v>196</v>
+      </c>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+    </row>
+    <row r="32" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="40"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="8">
         <v>2</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="15">
-        <v>6008.4911764705857</v>
-      </c>
-      <c r="K6" s="15">
-        <v>12016.982352941171</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="10">
+      <c r="E32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="8">
         <v>5</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="13">
-        <v>20</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="15">
-        <v>26.400705882352945</v>
-      </c>
-      <c r="K7" s="15">
-        <v>528.01411764705892</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="10">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="H32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="9">
+        <v>35</v>
+      </c>
+      <c r="K32" s="17">
+        <v>175</v>
+      </c>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+    </row>
+    <row r="33" spans="2:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="41"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="14">
+        <v>3</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="14">
         <v>2</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="15">
-        <v>569.40441176470586</v>
-      </c>
-      <c r="K8" s="15">
-        <v>1138.8088235294117</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="130.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="37"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="10">
+      <c r="H33" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="15">
+        <v>88</v>
+      </c>
+      <c r="K33" s="18">
+        <v>176</v>
+      </c>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+    </row>
+    <row r="34" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="19">
+        <f>SUM(K3:K33)</f>
+        <v>50486.458352941176</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34">
+        <v>0.12</v>
+      </c>
+      <c r="K35" s="19">
+        <f>K34*0.12</f>
+        <v>6058.375002352941</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="21">
-        <v>2</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="22">
-        <v>441.85294117647061</v>
-      </c>
-      <c r="K9" s="22">
-        <v>883.70588235294122</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="37"/>
-      <c r="C10" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="13">
-        <v>2</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="14">
-        <v>5750.8522499999999</v>
-      </c>
-      <c r="K10" s="14">
-        <v>11501.7045</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="159" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="37"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="10">
-        <v>8</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="13">
-        <v>20</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="14">
-        <v>26.400705882352945</v>
-      </c>
-      <c r="K11" s="14">
-        <v>528.01411764705892</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="13">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="55">
-        <v>138</v>
-      </c>
-      <c r="K12" s="55">
-        <f>+J12*G12</f>
-        <v>138</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="13">
-        <v>2</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="55">
-        <v>2.9</v>
-      </c>
-      <c r="K13" s="55">
-        <f>+J13*G13</f>
-        <v>5.8</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="13">
-        <v>3</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="13">
-        <v>10</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="55">
-        <v>5</v>
-      </c>
-      <c r="K14" s="55">
-        <f>+J14*G14</f>
-        <v>50</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="33"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="13">
-        <v>4</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="13">
-        <v>46</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="55">
-        <v>2</v>
-      </c>
-      <c r="K15" s="55">
-        <f>+J15*G15</f>
-        <v>92</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="13">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="55">
-        <v>20.440000000000001</v>
-      </c>
-      <c r="K16" s="55">
-        <f t="shared" ref="K16:K17" si="0">+J16*G16</f>
-        <v>20.440000000000001</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="13">
-        <v>2</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="55">
-        <v>2.91</v>
-      </c>
-      <c r="K17" s="55">
-        <f t="shared" si="0"/>
-        <v>2.91</v>
-      </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="32"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="13">
-        <v>3</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="56"/>
-      <c r="J18" s="55">
-        <v>6.44</v>
-      </c>
-      <c r="K18" s="55">
-        <f>+J18*G18</f>
-        <v>6.44</v>
-      </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="32"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="57">
-        <v>4</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="56"/>
-      <c r="J19" s="55">
-        <v>10.535</v>
-      </c>
-      <c r="K19" s="55">
-        <f>+J19*G19</f>
-        <v>10.535</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="57">
-        <v>5</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="56"/>
-      <c r="J20" s="55">
-        <v>3.0449999999999999</v>
-      </c>
-      <c r="K20" s="55">
-        <f>+J20*G20</f>
-        <v>3.0449999999999999</v>
-      </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="B21" s="32"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="57">
-        <v>6</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="13">
-        <v>2</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="55">
-        <v>434.69</v>
-      </c>
-      <c r="K21" s="55">
-        <f>+J21*G21</f>
-        <v>869.38</v>
-      </c>
-      <c r="L21" s="56"/>
-      <c r="M21" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="33"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="48">
-        <v>7</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="57">
-        <v>2</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="56"/>
-      <c r="J22" s="59">
-        <v>16.88</v>
-      </c>
-      <c r="K22" s="59">
-        <f>+J22*G22</f>
-        <v>33.76</v>
-      </c>
-      <c r="L22" s="56"/>
-      <c r="M22" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B23" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="10">
-        <v>7</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="15">
-        <v>28</v>
-      </c>
-      <c r="K23" s="54">
-        <v>196</v>
-      </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-    </row>
-    <row r="24" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B24" s="43"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="13">
-        <v>2</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="13">
-        <v>5</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="14">
-        <v>35</v>
-      </c>
-      <c r="K24" s="25">
-        <v>175</v>
-      </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-    </row>
-    <row r="25" spans="2:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="44"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="21">
-        <v>3</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="21">
-        <v>2</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="22">
-        <v>88</v>
-      </c>
-      <c r="K25" s="26">
-        <v>176</v>
-      </c>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-    </row>
-    <row r="26" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="27">
-        <f>SUM(K3:K25)</f>
-        <v>37672.066352941183</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35">
-        <v>0.12</v>
-      </c>
-      <c r="K27" s="27">
-        <f>K26*0.12</f>
-        <v>4520.6479623529422</v>
-      </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="28">
-        <f>SUM(K26:K27)</f>
-        <v>42192.714315294128</v>
-      </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="K36" s="20">
+        <f>SUM(K34:K35)</f>
+        <v>56544.833355294119</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B3:B11"/>
+  <mergeCells count="14">
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B36:J36"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B23:B30"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H23:H25 H3:H11" xr:uid="{7C920659-D24D-454B-959D-7A017B290D20}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H33 H3:H11" xr:uid="{7C920659-D24D-454B-959D-7A017B290D20}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Especifique un tipo " sqref="I3:K11" xr:uid="{3415B316-83A4-46ED-B162-FD7671B63171}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Especifique un tipo " sqref="I3:K11 I21:I22" xr:uid="{3415B316-83A4-46ED-B162-FD7671B63171}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Especifique un tipo " sqref="I12:I13" xr:uid="{252963D4-F68F-4F05-A8C6-63867CBDB26D}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
